--- a/01_project/take a camp/take a camp/data/Text/stage/stage_base.xlsx
+++ b/01_project/take a camp/take a camp/data/Text/stage/stage_base.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\take-a-camp\01_project\take a camp\take a camp\data\Text\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S-JoBi-035\Desktop\take-a-camp\01_project\take a camp\take a camp\data\Text\stage\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stage02 (2)" sheetId="6" r:id="rId1"/>
@@ -895,46 +895,141 @@
   </cellStyles>
   <dxfs count="46">
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
+        <patternFill patternType="solid">
+          <fgColor theme="5"/>
+          <bgColor theme="5"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1010,6 +1105,48 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1181,143 +1318,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="5"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1338,14 +1338,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TILE_ENUM" displayName="TILE_ENUM" ref="B2:D50" totalsRowShown="0" headerRowDxfId="45" tableBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TILE_ENUM" displayName="TILE_ENUM" ref="B2:D50" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="B2:D50"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="No." dataDxfId="43">
+    <tableColumn id="1" name="No." dataDxfId="2">
       <calculatedColumnFormula>ROW()-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="種類" dataDxfId="42"/>
-    <tableColumn id="3" name="ラベル名" dataDxfId="41"/>
+    <tableColumn id="2" name="種類" dataDxfId="1"/>
+    <tableColumn id="3" name="ラベル名" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1620,13 +1620,13 @@
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.45">
       <c r="H5">
         <v>0</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.45">
       <c r="G6">
         <v>0</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.45">
       <c r="E7">
         <v>0</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.45">
       <c r="D8">
         <v>0</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.45">
       <c r="D9">
         <v>0</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.45">
       <c r="C10">
         <v>0</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>0</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>0</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>0</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.45">
       <c r="C14">
         <v>0</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.45">
       <c r="D15">
         <v>0</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.45">
       <c r="D16">
         <v>0</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:28" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:28" x14ac:dyDescent="0.45">
       <c r="E17">
         <v>0</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:28" x14ac:dyDescent="0.4">
+    <row r="18" spans="5:28" x14ac:dyDescent="0.45">
       <c r="G18">
         <v>0</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:28" x14ac:dyDescent="0.4">
+    <row r="19" spans="5:28" x14ac:dyDescent="0.45">
       <c r="H19">
         <v>0</v>
       </c>
@@ -2633,24 +2633,24 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="A1:XFD1 D7:G7 G5:G6 H5:K7 A12:B13 A14:XFD1048576 C11:XFD13 D8:XFD10 L2:XFD7 Q11:AE19">
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2664,16 +2664,16 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2745,9 +2745,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -2798,7 +2798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>0</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>0</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>0</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>0</v>
       </c>
@@ -3381,9 +3381,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -3434,9 +3434,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -3487,7 +3487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>0</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>2</v>
       </c>
@@ -3584,89 +3584,89 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="E1:G1 C4:F4 F2:F3 R2:XFD3 A2:P2 A23:XFD1048576 J1:XFD1 A20:R21 T4:XFD22 A22 C5:P7 B8:P10 G2:P4 R4:R16 R18:R19 A11:P14 A2:A16 B16:O17 P2:P16">
-    <cfRule type="cellIs" dxfId="34" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:XFD3 E1:G1 J1:XFD1 A23:XFD1048576 T4:XFD22 A22 A20:R21 R4:R16 R18:R19 A2:P14 A15:A16 B16:O17 P15:P16">
-    <cfRule type="cellIs" dxfId="33" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="20" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1 C1">
-    <cfRule type="cellIs" dxfId="32" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1 C1">
-    <cfRule type="cellIs" dxfId="31" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="12" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="13" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="14" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="15" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="7" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:XFD34 A2:XFD14 A15:A18 B16:O18 P15:XFD18">
-    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:O15">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:O15">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:O15">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3683,15 +3683,15 @@
       <selection activeCell="A20" sqref="A20:Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.625" customWidth="1"/>
+    <col min="1" max="1" width="4.3984375" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>0</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>0</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>0</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>0</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>0</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>0</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>0</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>0</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>0</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>0</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>0</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>0</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>0</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.45">
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -4627,24 +4627,24 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B5:E5 E3:E4 F3:I5 F4:Q4 C7:C15 N6:P15 R2:R3 B6:Q8 J2:Q5 T5:XFD5 A9:Q18 A25:D25 F25:XFD25 A23:XFD23 V6:W22 Y6:XFD22 X4:XFD4 A26:XFD1048576 R24:XFD24 H1:J1 T2:XFD3 M1:XFD1 A1:D1 D5:N15">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:XFD5 A25:D25 F25:XFD25 A23:XFD23 Y6:XFD22 X4:XFD4 A26:XFD1048576 V6:W22 R24:XFD24 R2:R3 T2:XFD3 H1:XFD1 A1:D1 A2:Q18">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4661,14 +4661,14 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="1" max="1" width="3.8984375" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="4" width="16.875" customWidth="1"/>
+    <col min="3" max="4" width="16.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B1" s="17" t="s">
         <v>19</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B2" s="16">
         <f>IF(ROW()-2&gt;$D$1 - 1,"",ROW()-2)</f>
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>TILE_NONE</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B3" s="16">
         <f t="shared" ref="B3:B50" si="0">IF(ROW()-2&gt;$D$1 - 1,"",ROW()-2)</f>
         <v>1</v>
@@ -4703,7 +4703,7 @@
         <v>TILE_PLAYER</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B4" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4716,7 +4716,7 @@
         <v>TILE_PLAYER</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B5" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4729,7 +4729,7 @@
         <v>TILE_PLAYER</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B6" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4742,7 +4742,7 @@
         <v>TILE_PLAYER</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B7" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4755,7 +4755,7 @@
         <v>TILE_NORMAL</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B8" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4768,7 +4768,7 @@
         <v>TILE_NEEDLE</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B9" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4779,7 +4779,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B10" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4790,7 +4790,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B11" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4801,7 +4801,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B12" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4812,7 +4812,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B13" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4823,7 +4823,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B14" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4834,7 +4834,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B15" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4845,7 +4845,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B16" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4856,7 +4856,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B17" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4867,7 +4867,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B18" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4878,7 +4878,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B19" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4889,7 +4889,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B20" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4900,7 +4900,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B21" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4911,7 +4911,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B22" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4922,7 +4922,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B23" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4933,7 +4933,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B24" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4944,7 +4944,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B25" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4955,7 +4955,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B26" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4966,7 +4966,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B27" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4977,7 +4977,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B28" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4988,7 +4988,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B29" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4999,7 +4999,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B30" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5010,7 +5010,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B31" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5021,7 +5021,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B32" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5032,7 +5032,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B33" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5043,7 +5043,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B34" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5054,7 +5054,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B35" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5065,7 +5065,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B36" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5076,7 +5076,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B37" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5087,7 +5087,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B38" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5098,7 +5098,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B39" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5109,7 +5109,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B40" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5120,7 +5120,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B41" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5131,7 +5131,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B42" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5142,7 +5142,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B43" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5153,7 +5153,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B44" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5164,7 +5164,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B45" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5175,7 +5175,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B46" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5186,7 +5186,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B47" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5197,7 +5197,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B48" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5208,7 +5208,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B49" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5219,7 +5219,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B50" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5236,24 +5236,24 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B2:B50">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B50">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5270,15 +5270,15 @@
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="22.125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="5.59765625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="22.09765625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B3" s="4">
         <f>ROW()-2</f>
         <v>1</v>
@@ -5301,7 +5301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" s="7">
         <f t="shared" ref="B4:B50" si="0">ROW()-2</f>
         <v>2</v>
@@ -5313,7 +5313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B5" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5325,7 +5325,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B6" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5337,7 +5337,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B7" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5349,7 +5349,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5361,7 +5361,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5373,7 +5373,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5383,7 +5383,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5393,7 +5393,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5403,7 +5403,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5413,7 +5413,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5423,7 +5423,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B15" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5433,7 +5433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B16" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5443,7 +5443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5453,7 +5453,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5463,7 +5463,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" s="7">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5473,7 +5473,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" s="7">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5483,7 +5483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" s="7">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5493,7 +5493,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B22" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5503,7 +5503,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B23" s="7">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5513,7 +5513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B24" s="7">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5523,7 +5523,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B25" s="7">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5533,7 +5533,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B26" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5543,7 +5543,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B27" s="7">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5553,7 +5553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B28" s="7">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5563,7 +5563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B29" s="7">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5573,7 +5573,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B30" s="7">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5583,7 +5583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B31" s="7">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5593,7 +5593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B32" s="7">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5603,7 +5603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B33" s="7">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5613,7 +5613,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B34" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5623,7 +5623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B35" s="7">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5633,7 +5633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B36" s="7">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5643,7 +5643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B37" s="7">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5653,7 +5653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B38" s="7">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5663,7 +5663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B39" s="7">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5673,7 +5673,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B40" s="7">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5683,7 +5683,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B41" s="7">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -5693,7 +5693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B42" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5703,7 +5703,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B43" s="7">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5713,7 +5713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B44" s="7">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5723,7 +5723,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B45" s="7">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5733,7 +5733,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B46" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -5743,7 +5743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B47" s="7">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -5753,7 +5753,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B48" s="7">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -5763,7 +5763,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B49" s="7">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -5773,7 +5773,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B50" s="7">
         <f t="shared" si="0"/>
         <v>48</v>

--- a/01_project/take a camp/take a camp/data/Text/stage/stage_base.xlsx
+++ b/01_project/take a camp/take a camp/data/Text/stage/stage_base.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S-JoBi-035\Desktop\take-a-camp\01_project\take a camp\take a camp\data\Text\stage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\take-a-camp2\take-a-camp\01_project\take a camp\take a camp\data\Text\stage\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8370" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="stage02 (2)" sheetId="6" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="stage01" sheetId="3" r:id="rId3"/>
     <sheet name="tile_data" sheetId="5" r:id="rId4"/>
     <sheet name="enum" sheetId="4" r:id="rId5"/>
+    <sheet name="stage02 (3)" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="26">
   <si>
     <t>ステージ</t>
   </si>
@@ -893,143 +894,125 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="63">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDDDDD"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="5"/>
-          <bgColor theme="5"/>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1318,6 +1301,143 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="5"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1338,14 +1458,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TILE_ENUM" displayName="TILE_ENUM" ref="B2:D50" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TILE_ENUM" displayName="TILE_ENUM" ref="B2:D50" totalsRowShown="0" headerRowDxfId="62" tableBorderDxfId="61">
   <autoFilter ref="B2:D50"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="No." dataDxfId="2">
+    <tableColumn id="1" name="No." dataDxfId="60">
       <calculatedColumnFormula>ROW()-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="種類" dataDxfId="1"/>
-    <tableColumn id="3" name="ラベル名" dataDxfId="0"/>
+    <tableColumn id="2" name="種類" dataDxfId="59"/>
+    <tableColumn id="3" name="ラベル名" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1620,13 +1740,13 @@
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1634,7 +1754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.4">
       <c r="H5">
         <v>0</v>
       </c>
@@ -1660,7 +1780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.4">
       <c r="G6">
         <v>0</v>
       </c>
@@ -1698,7 +1818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.4">
       <c r="E7">
         <v>0</v>
       </c>
@@ -1760,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.4">
       <c r="D8">
         <v>0</v>
       </c>
@@ -1834,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.4">
       <c r="D9">
         <v>0</v>
       </c>
@@ -1908,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.4">
       <c r="C10">
         <v>0</v>
       </c>
@@ -1994,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>0</v>
       </c>
@@ -2086,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>0</v>
       </c>
@@ -2178,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>0</v>
       </c>
@@ -2270,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.4">
       <c r="C14">
         <v>0</v>
       </c>
@@ -2356,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.4">
       <c r="D15">
         <v>0</v>
       </c>
@@ -2430,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.4">
       <c r="D16">
         <v>0</v>
       </c>
@@ -2504,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:28" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:28" x14ac:dyDescent="0.4">
       <c r="E17">
         <v>0</v>
       </c>
@@ -2566,7 +2686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:28" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:28" x14ac:dyDescent="0.4">
       <c r="G18">
         <v>0</v>
       </c>
@@ -2604,7 +2724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:28" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:28" x14ac:dyDescent="0.4">
       <c r="H19">
         <v>0</v>
       </c>
@@ -2633,24 +2753,24 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="A1:XFD1 D7:G7 G5:G6 H5:K7 A12:B13 A14:XFD1048576 C11:XFD13 D8:XFD10 L2:XFD7 Q11:AE19">
-    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="3" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2663,17 +2783,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2695,7 +2815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2745,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>5</v>
       </c>
@@ -2798,7 +2918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2851,7 +2971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2904,7 +3024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2957,7 +3077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
@@ -3010,7 +3130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
@@ -3063,7 +3183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -3116,7 +3236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -3169,7 +3289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>0</v>
       </c>
@@ -3222,7 +3342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>0</v>
       </c>
@@ -3275,7 +3395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>0</v>
       </c>
@@ -3328,7 +3448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>0</v>
       </c>
@@ -3381,7 +3501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>7</v>
       </c>
@@ -3434,7 +3554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>5</v>
       </c>
@@ -3487,7 +3607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>0</v>
       </c>
@@ -3537,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>2</v>
       </c>
@@ -3584,89 +3704,89 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="E1:G1 C4:F4 F2:F3 R2:XFD3 A2:P2 A23:XFD1048576 J1:XFD1 A20:R21 T4:XFD22 A22 C5:P7 B8:P10 G2:P4 R4:R16 R18:R19 A11:P14 A2:A16 B16:O17 P2:P16">
-    <cfRule type="cellIs" dxfId="39" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:XFD3 E1:G1 J1:XFD1 A23:XFD1048576 T4:XFD22 A22 A20:R21 R4:R16 R18:R19 A2:P14 A15:A16 B16:O17 P15:P16">
-    <cfRule type="cellIs" dxfId="38" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="20" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1 C1">
-    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1 C1">
-    <cfRule type="cellIs" dxfId="36" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="12" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="13" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="14" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="15" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="16" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="cellIs" dxfId="31" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="7" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="8" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:XFD34 A2:XFD14 A15:A18 B16:O18 P15:XFD18">
-    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="18" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="19" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="21" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="22" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:O15">
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:O15">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:O15">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3683,15 +3803,15 @@
       <selection activeCell="A20" sqref="A20:Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.59765625" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -3713,7 +3833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3742,7 +3862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3798,7 +3918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
@@ -3854,7 +3974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
@@ -3910,7 +4030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>0</v>
       </c>
@@ -3960,7 +4080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>0</v>
       </c>
@@ -4010,7 +4130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>0</v>
       </c>
@@ -4060,7 +4180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>0</v>
       </c>
@@ -4110,7 +4230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>0</v>
       </c>
@@ -4160,7 +4280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>0</v>
       </c>
@@ -4210,7 +4330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>0</v>
       </c>
@@ -4260,7 +4380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>0</v>
       </c>
@@ -4310,7 +4430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>0</v>
       </c>
@@ -4360,7 +4480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>0</v>
       </c>
@@ -4416,7 +4536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>0</v>
       </c>
@@ -4472,7 +4592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>0</v>
       </c>
@@ -4528,7 +4648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>0</v>
       </c>
@@ -4557,7 +4677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -4610,7 +4730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.4">
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -4627,24 +4747,24 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B5:E5 E3:E4 F3:I5 F4:Q4 C7:C15 N6:P15 R2:R3 B6:Q8 J2:Q5 T5:XFD5 A9:Q18 A25:D25 F25:XFD25 A23:XFD23 V6:W22 Y6:XFD22 X4:XFD4 A26:XFD1048576 R24:XFD24 H1:J1 T2:XFD3 M1:XFD1 A1:D1 D5:N15">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:XFD5 A25:D25 F25:XFD25 A23:XFD23 Y6:XFD22 X4:XFD4 A26:XFD1048576 V6:W22 R24:XFD24 R2:R3 T2:XFD3 H1:XFD1 A1:D1 A2:Q18">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4661,14 +4781,14 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.8984375" customWidth="1"/>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="4" width="16.8984375" customWidth="1"/>
+    <col min="3" max="4" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B1" s="17" t="s">
         <v>19</v>
       </c>
@@ -4677,7 +4797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B2" s="16">
         <f>IF(ROW()-2&gt;$D$1 - 1,"",ROW()-2)</f>
         <v>0</v>
@@ -4690,7 +4810,7 @@
         <v>TILE_NONE</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B3" s="16">
         <f t="shared" ref="B3:B50" si="0">IF(ROW()-2&gt;$D$1 - 1,"",ROW()-2)</f>
         <v>1</v>
@@ -4703,7 +4823,7 @@
         <v>TILE_PLAYER</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B4" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4716,7 +4836,7 @@
         <v>TILE_PLAYER</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B5" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4729,7 +4849,7 @@
         <v>TILE_PLAYER</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B6" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4742,7 +4862,7 @@
         <v>TILE_PLAYER</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B7" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4755,7 +4875,7 @@
         <v>TILE_NORMAL</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B8" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4768,7 +4888,7 @@
         <v>TILE_NEEDLE</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B9" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4779,7 +4899,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B10" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4790,7 +4910,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B11" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4801,7 +4921,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B12" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4812,7 +4932,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B13" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4823,7 +4943,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B14" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4834,7 +4954,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B15" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4845,7 +4965,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B16" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4856,7 +4976,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B17" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4867,7 +4987,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B18" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4878,7 +4998,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B19" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4889,7 +5009,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B20" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4900,7 +5020,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B21" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4911,7 +5031,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B22" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4922,7 +5042,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B23" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4933,7 +5053,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B24" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4944,7 +5064,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B25" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4955,7 +5075,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B26" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4966,7 +5086,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B27" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4977,7 +5097,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B28" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4988,7 +5108,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B29" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4999,7 +5119,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B30" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5010,7 +5130,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B31" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5021,7 +5141,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B32" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5032,7 +5152,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B33" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5043,7 +5163,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B34" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5054,7 +5174,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B35" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5065,7 +5185,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B36" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5076,7 +5196,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B37" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5087,7 +5207,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B38" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5098,7 +5218,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B39" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5109,7 +5229,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B40" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5120,7 +5240,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B41" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5131,7 +5251,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B42" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5142,7 +5262,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B43" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5153,7 +5273,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B44" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5164,7 +5284,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B45" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5175,7 +5295,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B46" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5186,7 +5306,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B47" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5197,7 +5317,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B48" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5208,7 +5328,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B49" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5219,7 +5339,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B50" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5236,24 +5356,24 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B2:B50">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B50">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5270,15 +5390,15 @@
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="5.59765625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="22.09765625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="16.8984375" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -5289,7 +5409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B3" s="4">
         <f>ROW()-2</f>
         <v>1</v>
@@ -5301,7 +5421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" s="7">
         <f t="shared" ref="B4:B50" si="0">ROW()-2</f>
         <v>2</v>
@@ -5313,7 +5433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5325,7 +5445,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5337,7 +5457,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5349,7 +5469,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5361,7 +5481,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5373,7 +5493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5383,7 +5503,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5393,7 +5513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5403,7 +5523,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5413,7 +5533,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5423,7 +5543,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5433,7 +5553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5443,7 +5563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5453,7 +5573,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5463,7 +5583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="7">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5473,7 +5593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="7">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5483,7 +5603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="7">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5493,7 +5613,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5503,7 +5623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" s="7">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5513,7 +5633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="7">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5523,7 +5643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="7">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5533,7 +5653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5543,7 +5663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B27" s="7">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5553,7 +5673,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28" s="7">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5563,7 +5683,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B29" s="7">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5573,7 +5693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B30" s="7">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5583,7 +5703,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B31" s="7">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5593,7 +5713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B32" s="7">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5603,7 +5723,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="7">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5613,7 +5733,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B34" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5623,7 +5743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B35" s="7">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5633,7 +5753,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B36" s="7">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5643,7 +5763,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B37" s="7">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5653,7 +5773,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B38" s="7">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5663,7 +5783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B39" s="7">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5673,7 +5793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B40" s="7">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5683,7 +5803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B41" s="7">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -5693,7 +5813,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B42" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5703,7 +5823,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B43" s="7">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5713,7 +5833,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B44" s="7">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5723,7 +5843,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B45" s="7">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5733,7 +5853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B46" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -5743,7 +5863,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B47" s="7">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -5753,7 +5873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B48" s="7">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -5763,7 +5883,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B49" s="7">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -5773,7 +5893,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B50" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -5791,4 +5911,651 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1">
+        <v>3</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>8</v>
+      </c>
+      <c r="H1">
+        <f>COUNTIF(2:10000,"x")-1</f>
+        <v>16</v>
+      </c>
+      <c r="I1">
+        <f>COUNTIF(2:10000,"y")-1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <conditionalFormatting sqref="E1:G1 R2:XFD3 A29:XFD1048576 J1:XFD1 A20:F21 T4:XFD22 A22 A2:P2 R4:R16 R18:R19 P15:P16 A23:F28 B15:B18 H15:H18 B3:H14 K3:P9 O20:R21 O23:XFD28 I14:I19 N10:P11 O12:P14 O15:O17 A3:A16 I3:I12 J3:J20 G21:I21">
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:XFD3 E1:G1 J1:XFD1 A29:XFD1048576 T4:XFD22 A22 A20:F21 R4:R16 R18:R19 P15:P16 A23:F28 A2:P2 B15:B18 H15:H18 B3:H14 K3:P9 O20:R21 O23:XFD28 I14:I19 N10:P11 O12:P14 O15:O17 A3:A16 I3:I12 J3:J20 G21:I21">
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1 C1">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1 C1">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:I1">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:XFD2 K3:XFD9 A29:XFD34 A20:F28 N10:XFD11 O12:XFD28 A3:I19 J3:J20 G20:G21 H21:I21">
+    <cfRule type="cellIs" dxfId="3" priority="18" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="19" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="21" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>